--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/code4life/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/code4life/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68F635A-63C8-2145-88A2-B6C58E4A5EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB835679-236E-1142-9EDC-66248822EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{0761AD22-BB1F-FA4D-B2AF-35D025AA539F}"/>
   </bookViews>
@@ -414,6 +414,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
